--- a/Config/Animals.xlsx
+++ b/Config/Animals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20369"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\毕业设计\rescue-endangered\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\graduation-design\temp\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A164E9-9F00-4DAA-BAB4-7D7A00096806}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAF152F-0979-47BD-9CF0-728E95BE352C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12615" yWindow="495" windowWidth="16260" windowHeight="10845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1095" yWindow="-120" windowWidth="27825" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Animal" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -70,24 +70,9 @@
     <t>金丝猴</t>
   </si>
   <si>
-    <t>白鳍豚</t>
-  </si>
-  <si>
     <t>华南虎</t>
   </si>
   <si>
-    <t>朱鹗</t>
-  </si>
-  <si>
-    <t>裼马鸡</t>
-  </si>
-  <si>
-    <t>扬子鳄</t>
-  </si>
-  <si>
-    <t>藏羚羊</t>
-  </si>
-  <si>
     <t>麋鹿</t>
   </si>
   <si>
@@ -121,10 +106,80 @@
     <t>Rhinopithecus</t>
   </si>
   <si>
-    <t>中国四川、陕西、贵州、云南、西藏等地；越南北部宣光省</t>
-  </si>
-  <si>
     <t>中国四川、陕西、甘肃等地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栖息地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山谷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沼泽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IgnoreProtectionLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家动物保护等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Panthera tigris Amoyensis</t>
+  </si>
+  <si>
+    <t>曾经遍布中国各地，现在可能已经野外灭绝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国四川、陕西、贵州、云南、西藏等地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IgnoreHabitat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国新疆、甘肃、宁夏等地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家一级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家二级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大熊猫属于食肉目熊科的一种哺乳动物，体型肥硕似熊、丰腴富态，头圆尾短，头躯长1.2-1.8米，尾长10-12厘米。体重80-120千克，最重可达180千克，体色为黑白两色，脸颊圆，有大的黑眼圈，标志性的内八字的行走方式，也有解剖刀般锋利的爪子。大熊猫皮肤厚，最厚处可达10毫米。黑白相间的外表，有利于隐蔽在密林的树上和积雪的地面而不易被天敌发现。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Felis lybica</t>
+  </si>
+  <si>
+    <t>亚非野猫</t>
+  </si>
+  <si>
+    <t>亚非野猫是一种小型猫科动物，在中国称为草原斑猫。体形比家猫大，体长为50-70厘米，尾长为25-35厘米，几乎正好是体长的一半，体重约为8千克，看上去显得比较粗壮。目光狡黠，性情暴躁，各色毛皮上有斑点。受到威胁时，亚非野猫会拱起脊背并会竖起体毛，使自身看上去更大，以震慑对手。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华南虎属于中等体型的虎，小于同处于亚洲大陆的东北虎和孟加拉虎，但是大于苏门答腊虎，雄虎身长约 2.5 m，重约 150 kg，雌虎身长约 2.3 m，体重约 110 kg。尾长 80-100 cm。华南虎的头骨要明显的小于东北虎和孟加拉虎，雄虎头骨的平均长度仅为 318 mm。从形态学上看华南虎和其他虎亚种的区别最大，头骨长度与头骨宽度的比值较大，体型修长，腹部较细，更接近老虎的直系祖先被认为是一个古老的亚种。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仰鼻猴的鼻孔与面部几乎平行，俗称“朝天鼻”，这一特点是对高原缺氧环境的适应，鼻梁骨的退化有利于减少在稀薄空气中呼吸的阻力。仰鼻猴体形中等，51~83厘米不等，尾长与身长差不多。仰鼻猴背部有发亮的长毛；颜面青色，一般头顶、颈项、肩膀、上臂、背部和尾部灰黑色，头侧、颈侧、躯体侧面和四肢内侧褐黄色。不同种毛色也有不同，川金丝猴毛色金黄，黔金丝猴和滇金丝猴毛色为黑灰色，缅甸金丝猴全身呈黑色。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -177,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -190,6 +245,15 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -471,25 +535,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C319EAB0-E15C-48AE-9953-B84954D6139C}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="9" style="4" customWidth="1"/>
-    <col min="3" max="3" width="22.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="54.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="3"/>
-    <col min="8" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="12.5" style="3" customWidth="1"/>
+    <col min="2" max="3" width="12.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.5" style="7" customWidth="1"/>
+    <col min="9" max="9" width="9" style="3"/>
+    <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -497,20 +562,26 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -521,17 +592,23 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -539,256 +616,237 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="str">
+      <c r="C4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="3" t="str">
         <f>CONCATENATE("tex_animals_",B4,".png")</f>
         <v>tex_animals_大熊猫.png</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f>CONCATENATE("tex_animals_",B5,".png")</f>
+        <v>tex_animals_华南虎.png</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>2001</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="3" t="str">
-        <f>CONCATENATE("这里是",B4,"的描述文本。")</f>
-        <v>这里是大熊猫的描述文本。</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="str">
-        <f t="shared" ref="C5:C13" si="0">CONCATENATE("tex_animals_",B5,".png")</f>
+      <c r="D6" s="3" t="str">
+        <f>CONCATENATE("tex_animals_",B6,".png")</f>
         <v>tex_animals_金丝猴.png</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="3" t="str">
-        <f t="shared" ref="F5:F13" si="1">CONCATENATE("这里是",B5,"的描述文本。")</f>
-        <v>这里是金丝猴的描述文本。</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>tex_animals_白鳍豚.png</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>这里是白鳍豚的描述文本。</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <v>4</v>
+        <v>2002</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>tex_animals_华南虎.png</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>这里是华南虎的描述文本。</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <f>CONCATENATE("tex_animals_",B7,".png")</f>
+        <v>tex_animals_亚非野猫.png</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <v>5</v>
+        <v>3001</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>tex_animals_朱鹗.png</v>
-      </c>
-      <c r="D8" s="3"/>
+      <c r="C8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f>CONCATENATE("tex_animals_",B8,".png")</f>
+        <v>tex_animals_黑颈鹤.png</v>
+      </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>这里是朱鹗的描述文本。</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="5" t="str">
+        <f>CONCATENATE("这里是",B8,"的描述文本。")</f>
+        <v>这里是黑颈鹤的描述文本。</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <v>6</v>
+        <v>3002</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>tex_animals_裼马鸡.png</v>
-      </c>
-      <c r="D9" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f>CONCATENATE("tex_animals_",B9,".png")</f>
+        <v>tex_animals_麋鹿.png</v>
+      </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>这里是裼马鸡的描述文本。</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>tex_animals_扬子鳄.png</v>
-      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="5" t="str">
+        <f>CONCATENATE("这里是",B9,"的描述文本。")</f>
+        <v>这里是麋鹿的描述文本。</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>这里是扬子鳄的描述文本。</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>tex_animals_黑颈鹤.png</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>这里是黑颈鹤的描述文本。</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>9</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>tex_animals_藏羚羊.png</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>这里是藏羚羊的描述文本。</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>10</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>tex_animals_麋鹿.png</v>
-      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>这里是麋鹿的描述文本。</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C14" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C15" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C16" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C17" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C18" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C19" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C20" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C21" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Config/Animals.xlsx
+++ b/Config/Animals.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\graduation-design\temp\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\graduation-design\habitats-exploration\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAF152F-0979-47BD-9CF0-728E95BE352C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC854AE-EBE6-4904-A617-34502AF5C873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1095" yWindow="-120" windowWidth="27825" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,9 +37,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Icon</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -55,10 +52,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -126,10 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IgnoreProtectionLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>国家动物保护等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -180,6 +169,18 @@
   </si>
   <si>
     <t>仰鼻猴的鼻孔与面部几乎平行，俗称“朝天鼻”，这一特点是对高原缺氧环境的适应，鼻梁骨的退化有利于减少在稀薄空气中呼吸的阻力。仰鼻猴体形中等，51~83厘米不等，尾长与身长差不多。仰鼻猴背部有发亮的长毛；颜面青色，一般头顶、颈项、肩膀、上臂、背部和尾部灰黑色，头侧、颈侧、躯体侧面和四肢内侧褐黄色。不同种毛色也有不同，川金丝猴毛色金黄，黔金丝猴和滇金丝猴毛色为黑灰色，缅甸金丝猴全身呈黑色。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProtectionLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -538,16 +539,17 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" style="3" customWidth="1"/>
-    <col min="2" max="3" width="12.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.75" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.25" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="40.125" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37.5" style="7" customWidth="1"/>
     <col min="9" max="9" width="9" style="3"/>
@@ -562,49 +564,49 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>4</v>
       </c>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -613,80 +615,80 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4" s="3" t="str">
-        <f>CONCATENATE("tex_animals_",B4,".png")</f>
+        <f t="shared" ref="D4:D9" si="0">CONCATENATE("tex_animals_",B4,".png")</f>
         <v>tex_animals_大熊猫.png</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="H4" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" s="3" t="str">
-        <f>CONCATENATE("tex_animals_",B5,".png")</f>
+        <f t="shared" si="0"/>
         <v>tex_animals_华南虎.png</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="142.5" x14ac:dyDescent="0.2">
@@ -694,26 +696,26 @@
         <v>2001</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" s="3" t="str">
-        <f>CONCATENATE("tex_animals_",B6,".png")</f>
+        <f t="shared" si="0"/>
         <v>tex_animals_金丝猴.png</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
@@ -721,26 +723,26 @@
         <v>2002</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" s="3" t="str">
-        <f>CONCATENATE("tex_animals_",B7,".png")</f>
+        <f t="shared" si="0"/>
         <v>tex_animals_亚非野猫.png</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -748,13 +750,13 @@
         <v>3001</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" s="3" t="str">
-        <f>CONCATENATE("tex_animals_",B8,".png")</f>
+        <f t="shared" si="0"/>
         <v>tex_animals_黑颈鹤.png</v>
       </c>
       <c r="E8" s="3"/>
@@ -770,13 +772,13 @@
         <v>3002</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" s="3" t="str">
-        <f>CONCATENATE("tex_animals_",B9,".png")</f>
+        <f t="shared" si="0"/>
         <v>tex_animals_麋鹿.png</v>
       </c>
       <c r="E9" s="3"/>

--- a/Config/Animals.xlsx
+++ b/Config/Animals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\graduation-design\habitats-exploration\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC854AE-EBE6-4904-A617-34502AF5C873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4B387C-5BF0-4CB5-A6C6-1911AD9BD29A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1095" yWindow="-120" windowWidth="27825" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1104" yWindow="-108" windowWidth="29724" windowHeight="19416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Animal" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
   <si>
     <t>ID</t>
   </si>
@@ -181,6 +181,30 @@
   </si>
   <si>
     <t>Image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IgnoreResourceName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源用名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>giant-panda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>south-chinese-tiger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>golden-monkey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asian-wild-cat</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -536,27 +560,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C319EAB0-E15C-48AE-9953-B84954D6139C}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="A1:XFD1048576"/>
+      <selection activeCell="E4" sqref="E4:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.5" style="7" customWidth="1"/>
-    <col min="9" max="9" width="9" style="3"/>
-    <col min="10" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="12.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.44140625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="9" style="3"/>
+    <col min="11" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -564,26 +589,29 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -597,20 +625,23 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -618,26 +649,29 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1001</v>
       </c>
@@ -645,26 +679,29 @@
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="3" t="str">
-        <f t="shared" ref="D4:D9" si="0">CONCATENATE("tex_animals_",B4,".png")</f>
-        <v>tex_animals_大熊猫.png</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="3" t="str">
+        <f>CONCATENATE("tex_animal_",C4,".png")</f>
+        <v>tex_animal_giant-panda.png</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1002</v>
       </c>
@@ -672,26 +709,29 @@
         <v>10</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>tex_animals_华南虎.png</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="3" t="str">
+        <f t="shared" ref="E5:E9" si="0">CONCATENATE("tex_animal_",C5,".png")</f>
+        <v>tex_animal_south-chinese-tiger.png</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2001</v>
       </c>
@@ -699,26 +739,29 @@
         <v>9</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="3" t="str">
+      <c r="E6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>tex_animals_金丝猴.png</v>
-      </c>
-      <c r="E6" s="3" t="s">
+        <v>tex_animal_golden-monkey.png</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2002</v>
       </c>
@@ -726,129 +769,132 @@
         <v>35</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="3" t="str">
+      <c r="E7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>tex_animals_亚非野猫.png</v>
-      </c>
-      <c r="E7" s="3" t="s">
+        <v>tex_animal_asian-wild-cat.png</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>3001</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="3" t="str">
+      <c r="E8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>tex_animals_黑颈鹤.png</v>
-      </c>
-      <c r="E8" s="3"/>
+        <v>tex_animal_.png</v>
+      </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="5" t="str">
+      <c r="H8" s="3"/>
+      <c r="I8" s="5" t="str">
         <f>CONCATENATE("这里是",B8,"的描述文本。")</f>
         <v>这里是黑颈鹤的描述文本。</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>3002</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="3" t="str">
+      <c r="E9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>tex_animals_麋鹿.png</v>
-      </c>
-      <c r="E9" s="3"/>
+        <v>tex_animal_.png</v>
+      </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="5" t="str">
+      <c r="H9" s="3"/>
+      <c r="I9" s="5" t="str">
         <f>CONCATENATE("这里是",B9,"的描述文本。")</f>
         <v>这里是麋鹿的描述文本。</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D10" s="3"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D13" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D14" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D15" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D16" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D17" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D18" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D19" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D20" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D21" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Config/Animals.xlsx
+++ b/Config/Animals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\graduation-design\habitats-exploration\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4B387C-5BF0-4CB5-A6C6-1911AD9BD29A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7ABE5C1-62F3-427E-976F-D04403CEE445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1104" yWindow="-108" windowWidth="29724" windowHeight="19416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1095" yWindow="-120" windowWidth="27825" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Animal" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
   <si>
     <t>ID</t>
   </si>
@@ -66,13 +66,6 @@
     <t>华南虎</t>
   </si>
   <si>
-    <t>麋鹿</t>
-  </si>
-  <si>
-    <t>黑颈鹤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Distribution</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -115,10 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>沼泽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>国家动物保护等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -150,28 +139,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大熊猫属于食肉目熊科的一种哺乳动物，体型肥硕似熊、丰腴富态，头圆尾短，头躯长1.2-1.8米，尾长10-12厘米。体重80-120千克，最重可达180千克，体色为黑白两色，脸颊圆，有大的黑眼圈，标志性的内八字的行走方式，也有解剖刀般锋利的爪子。大熊猫皮肤厚，最厚处可达10毫米。黑白相间的外表，有利于隐蔽在密林的树上和积雪的地面而不易被天敌发现。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Felis lybica</t>
   </si>
   <si>
     <t>亚非野猫</t>
   </si>
   <si>
-    <t>亚非野猫是一种小型猫科动物，在中国称为草原斑猫。体形比家猫大，体长为50-70厘米，尾长为25-35厘米，几乎正好是体长的一半，体重约为8千克，看上去显得比较粗壮。目光狡黠，性情暴躁，各色毛皮上有斑点。受到威胁时，亚非野猫会拱起脊背并会竖起体毛，使自身看上去更大，以震慑对手。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华南虎属于中等体型的虎，小于同处于亚洲大陆的东北虎和孟加拉虎，但是大于苏门答腊虎，雄虎身长约 2.5 m，重约 150 kg，雌虎身长约 2.3 m，体重约 110 kg。尾长 80-100 cm。华南虎的头骨要明显的小于东北虎和孟加拉虎，雄虎头骨的平均长度仅为 318 mm。从形态学上看华南虎和其他虎亚种的区别最大，头骨长度与头骨宽度的比值较大，体型修长，腹部较细，更接近老虎的直系祖先被认为是一个古老的亚种。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仰鼻猴的鼻孔与面部几乎平行，俗称“朝天鼻”，这一特点是对高原缺氧环境的适应，鼻梁骨的退化有利于减少在稀薄空气中呼吸的阻力。仰鼻猴体形中等，51~83厘米不等，尾长与身长差不多。仰鼻猴背部有发亮的长毛；颜面青色，一般头顶、颈项、肩膀、上臂、背部和尾部灰黑色，头侧、颈侧、躯体侧面和四肢内侧褐黄色。不同种毛色也有不同，川金丝猴毛色金黄，黔金丝猴和滇金丝猴毛色为黑灰色，缅甸金丝猴全身呈黑色。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ProtectionLevel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -205,6 +178,47 @@
   </si>
   <si>
     <t>asian-wild-cat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿孔雀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>green-peafowl</t>
+  </si>
+  <si>
+    <t>Pavo muticus</t>
+  </si>
+  <si>
+    <t>　　大型鸡类，体长180~230厘米。
+　　雄鸟体羽为翠蓝绿色，头顶有一簇直立的冠羽，下背翠绿色而具紫铜色光泽。体后拖着长达1米以上的尾上覆羽，羽端具光泽绚丽的眼状斑，形成华丽的尾屏，极为醒目。
+　　雌鸟不及雄鸟艳丽，亦无尾屏，体羽主要为翠金属绿色，背浓褐色，头顶亦具一簇直立羽冠。外形和雄鸟相似，亦甚醒目。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>　　大熊猫属于食肉目熊科的一种哺乳动物，体型肥硕似熊、丰腴富态，头圆尾短，头躯长1.2-1.8米，尾长10-12厘米。体重80-120千克，最重可达180千克。
+　　体色为黑白两色，脸颊圆，有大的黑眼圈，标志性的内八字的行走方式，也有解剖刀般锋利的爪子。大熊猫皮肤厚，最厚处可达10毫米。黑白相间的外表，有利于隐蔽在密林的树上和积雪的地面而不易被天敌发现。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>　　华南虎属于中等体型的虎，小于同处于亚洲大陆的东北虎和孟加拉虎，但是大于苏门答腊虎，雄虎身长约25m，重约150kg，雌虎身长约23m，体重约110kg。尾长80-100cm。
+　　华南虎的头骨要明显的小于东北虎和孟加拉虎，雄虎头骨的平均长度仅为318mm。从形态学上看华南虎和其他虎亚种的区别最大，头骨长度与头骨宽度的比值较大，体型修长，腹部较细，更接近老虎的直系祖先被认为是一个古老的亚种。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>　　仰鼻猴的鼻孔与面部几乎平行，俗称“朝天鼻”，这一特点是对高原缺氧环境的适应，鼻梁骨的退化有利于减少在稀薄空气中呼吸的阻力。
+　　仰鼻猴体形中等，51~83厘米不等，尾长与身长差不多。仰鼻猴背部有发亮的长毛；颜面青色，一般头顶、颈项、肩膀、上臂、背部和尾部灰黑色，头侧、颈侧、躯体侧面和四肢内侧褐黄色。
+　　不同种毛色也有不同，川金丝猴毛色金黄，黔金丝猴和滇金丝猴毛色为黑灰色，缅甸金丝猴全身呈黑色。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>　　亚非野猫是一种小型猫科动物，在中国称为草原斑猫。体形比家猫大，体长为50-70厘米，尾长为25-35厘米，几乎正好是体长的一半，体重约为8千克，看上去显得比较粗壮。
+　　目光狡黠，性情暴躁，各色毛皮上有斑点。受到威胁时，亚非野猫会拱起脊背并会竖起体毛，使自身看上去更大，以震慑对手。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国云南西部怒江、西南部思茅、南部红河和中部楚雄地区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -562,26 +576,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C319EAB0-E15C-48AE-9953-B84954D6139C}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.44140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="12.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="54.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41.25" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="3"/>
     <col min="11" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -589,29 +603,29 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -628,20 +642,20 @@
         <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -649,29 +663,29 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1001</v>
       </c>
@@ -679,29 +693,29 @@
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3" t="str">
         <f>CONCATENATE("tex_animal_",C4,".png")</f>
         <v>tex_animal_giant-panda.png</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="I4" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="151.80000000000001" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1002</v>
       </c>
@@ -709,29 +723,29 @@
         <v>10</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" s="3" t="str">
         <f t="shared" ref="E5:E9" si="0">CONCATENATE("tex_animal_",C5,".png")</f>
         <v>tex_animal_south-chinese-tiger.png</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="151.80000000000001" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="171" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2001</v>
       </c>
@@ -739,158 +753,151 @@
         <v>9</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>tex_animal_golden-monkey.png</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="110.4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>2002</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>tex_animal_asian-wild-cat.png</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="114" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <v>3001</v>
+        <v>2003</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>12</v>
+        <v>41</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>tex_animal_.png</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="5" t="str">
-        <f>CONCATENATE("这里是",B8,"的描述文本。")</f>
-        <v>这里是黑颈鹤的描述文本。</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>3002</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>tex_animal_.png</v>
-      </c>
+        <v>tex_animal_green-peafowl.png</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="5" t="str">
-        <f>CONCATENATE("这里是",B9,"的描述文本。")</f>
-        <v>这里是麋鹿的描述文本。</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
